--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>975557.1018417493</v>
+        <v>970843.1908873855</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10204060.42919797</v>
+        <v>10201700.51163629</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>45.77324607563143</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>180.6670618271605</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>113.7389951292045</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968106</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>103.8812695548172</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>108.1045920014104</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.992588230268657</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>173.5425589590856</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>43.66266530372916</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.86039560144242</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.7540220763313231</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>92.25376096888213</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>40.17680127091223</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.60474926612928</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372795</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362807</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>57.9825722487324</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>135.9559831020672</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599388</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465764</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338909</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456102</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>179.8571121886414</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.1665987097107</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>167.6441153189793</v>
+        <v>247.9877592954772</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1670,7 +1670,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>43.35674041797109</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>136.9802970619295</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2567,13 +2567,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X28" t="n">
         <v>137.7482445205302</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596574969</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973564981</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.57601873167813</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.72314698196054</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380027</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667938</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.97275566644664</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883878</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541082</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658275</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.882059701038671</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656599</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.570563891393</v>
+        <v>1054.676280585541</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.570563891393</v>
+        <v>1054.676280585541</v>
       </c>
       <c r="D2" t="n">
-        <v>1101.570563891393</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="E2" t="n">
-        <v>1101.570563891393</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697128</v>
+        <v>2065.661024630533</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523737</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958336</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958336</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="W2" t="n">
-        <v>1491.023168958336</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="X2" t="n">
-        <v>1101.570563891393</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1101.570563891393</v>
+        <v>1455.171026296938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>786.3100318480288</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>635.655801408121</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>505.5668340296013</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>369.120343140489</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>244.6885370236208</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.31846137548</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1117.420583213483</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>938.1063662889901</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835.7461243591251</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="C4" t="n">
-        <v>835.7461243591251</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>680.1130112616399</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208424</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338154</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X4" t="n">
-        <v>835.7461243591251</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y4" t="n">
-        <v>835.7461243591251</v>
+        <v>146.4338220642345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.781755252924</v>
+        <v>1278.176883026125</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.606253755854</v>
+        <v>1278.176883026125</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.606253755854</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>774.0227288723988</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>357.1282904023766</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253949</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354875</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.276500964321</v>
+        <v>1678.671628737522</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136675</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146767</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737748</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1872.210915287855</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1662.147771966497</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1439.607770337564</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1209.49052447085</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>1020.183446820862</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>840.8692298963693</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.9683549315751</v>
+        <v>522.900289928632</v>
       </c>
       <c r="C7" t="n">
-        <v>206.9683549315751</v>
+        <v>352.6951719946211</v>
       </c>
       <c r="D7" t="n">
-        <v>206.9683549315751</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>220.9687545289917</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>206.9683549315751</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>206.9683549315751</v>
+        <v>942.1886308369502</v>
       </c>
       <c r="X7" t="n">
-        <v>206.9683549315751</v>
+        <v>708.1083086199333</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.9683549315751</v>
+        <v>708.1083086199333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.7964402104908</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="C8" t="n">
-        <v>149.6209387134214</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>149.6209387134214</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>149.6209387134214</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4841,13 +4841,13 @@
         <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.781895001287</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.781895001287</v>
+        <v>928.200232423198</v>
       </c>
       <c r="Y8" t="n">
-        <v>943.2911859218877</v>
+        <v>531.7095233437991</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2097408591271</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>684.0046229251163</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3715098276311</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1346.758074478048</v>
+        <v>1621.58371308251</v>
       </c>
       <c r="C11" t="n">
-        <v>1025.378848127173</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D11" t="n">
-        <v>711.7339944900341</v>
+        <v>986.5596330944956</v>
       </c>
       <c r="E11" t="n">
-        <v>380.9467447527724</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527724</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2617.010068782724</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.807308897206</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2000.150978976456</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1675.456545043251</v>
+        <v>1950.282183647713</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.7287123499374</v>
+        <v>460.2285883998841</v>
       </c>
       <c r="C13" t="n">
-        <v>387.3198695621204</v>
+        <v>460.2285883998841</v>
       </c>
       <c r="D13" t="n">
-        <v>387.3198695621204</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675167</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131561</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5203,46 +5203,46 @@
         <v>254.9154847581889</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118219</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138157</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517029</v>
+        <v>968.0114915408518</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840476</v>
+        <v>773.82842150787</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614193</v>
+        <v>773.82842150787</v>
       </c>
       <c r="X13" t="n">
-        <v>713.4501515614193</v>
+        <v>611.5443744370469</v>
       </c>
       <c r="Y13" t="n">
-        <v>599.1404558950449</v>
+        <v>460.2285883998841</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.628579464417</v>
+        <v>1558.431545602419</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.249353113541</v>
+        <v>1237.052319251543</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>986.5596330944957</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2290.021483962825</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.32705002962</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342.5154088871261</v>
+        <v>387.3198695621202</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1065660993092</v>
+        <v>387.3198695621202</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1065660993092</v>
+        <v>387.3198695621202</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584759</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922021</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1175.24418249583</v>
+        <v>988.1475398457734</v>
       </c>
       <c r="V16" t="n">
-        <v>981.061112462848</v>
+        <v>793.9644698127914</v>
       </c>
       <c r="W16" t="n">
-        <v>769.5269855402194</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="X16" t="n">
-        <v>607.2429384693963</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="Y16" t="n">
-        <v>455.9271524322335</v>
+        <v>431.1145568530002</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1634.317313094942</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,13 +5911,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
         <v>812.1990332879427</v>
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,37 +6218,37 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6315,13 +6315,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809191996</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225727</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904101</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122474</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628626</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.44903272825</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102265</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286442</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988157</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6455,58 +6455,58 @@
         <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388009</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662628</v>
+        <v>763.0997113429869</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985356</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796857</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225741</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640381</v>
+        <v>323.8570290861562</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185701</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464169</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.49347523582</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873282</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929705</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.3853606404851</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245252</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652531</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407224</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431916</v>
+        <v>86.73045008374179</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067521</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805519</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188159</v>
+        <v>693.3398934768793</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770952</v>
+        <v>988.1816480830715</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1150.88641512478</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250165</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.7257283273661</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400691</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045776</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027464</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6959,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,19 +7436,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7658,7 +7658,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,7 +7667,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
         <v>3105.956385205777</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229825</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222401</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960399</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634304</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879418</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>218.5182021115914</v>
+        <v>159.1611234709529</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>465.3882399439956</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>109.9596970781594</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>246.323511680633</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296675</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>254.0922014045166</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>162.9122342875674</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>417.2510275517577</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8532,25 +8532,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>265.8235510992406</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>237.5738335035115</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>569.9919810238534</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10899,10 +10899,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23270,13 +23270,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>209.6248565600525</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>185.4915064918058</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177853</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442491</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901693</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>31.64897925714473</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.63602946708053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>142.8642897817876</v>
+        <v>62.52064580528975</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>68.92088569168524</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
         <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>74.52579438385659</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>891040.0432984892</v>
+        <v>889836.9480709686</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>891040.0432984892</v>
+        <v>889836.9480709686</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800604.5820633093</v>
+        <v>800604.5820633095</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800604.5820633096</v>
+        <v>800604.5820633094</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147206</v>
       </c>
       <c r="C2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147207</v>
       </c>
       <c r="D2" t="n">
         <v>414764.0096147208</v>
       </c>
       <c r="E2" t="n">
-        <v>366525.7538761217</v>
+        <v>366525.7538761215</v>
       </c>
       <c r="F2" t="n">
         <v>366525.7538761217</v>
       </c>
       <c r="G2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="H2" t="n">
         <v>414764.009614721</v>
       </c>
       <c r="I2" t="n">
+        <v>414764.0096147209</v>
+      </c>
+      <c r="J2" t="n">
+        <v>414764.0096147218</v>
+      </c>
+      <c r="K2" t="n">
+        <v>414764.0096147214</v>
+      </c>
+      <c r="L2" t="n">
+        <v>414764.0096147204</v>
+      </c>
+      <c r="M2" t="n">
+        <v>414764.0096147209</v>
+      </c>
+      <c r="N2" t="n">
         <v>414764.009614721</v>
-      </c>
-      <c r="J2" t="n">
-        <v>414764.0096147205</v>
-      </c>
-      <c r="K2" t="n">
-        <v>414764.0096147205</v>
-      </c>
-      <c r="L2" t="n">
-        <v>414764.0096147205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>414764.009614721</v>
-      </c>
-      <c r="N2" t="n">
-        <v>414764.0096147209</v>
       </c>
       <c r="O2" t="n">
         <v>414764.0096147209</v>
       </c>
       <c r="P2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147209</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>47425.32553668196</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539686</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
         <v>125701.6674923646</v>
@@ -26436,16 +26436,16 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.07644833</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44810.1493011718</v>
+        <v>-40458.70348687719</v>
       </c>
       <c r="C6" t="n">
-        <v>137394.798990684</v>
+        <v>133399.9535471778</v>
       </c>
       <c r="D6" t="n">
-        <v>130226.4779690126</v>
+        <v>122490.1887456209</v>
       </c>
       <c r="E6" t="n">
-        <v>75515.50520987221</v>
+        <v>75305.77366318238</v>
       </c>
       <c r="F6" t="n">
-        <v>187638.0666839166</v>
+        <v>187428.335137227</v>
       </c>
       <c r="G6" t="n">
-        <v>135708.3307785724</v>
+        <v>135708.3307785725</v>
       </c>
       <c r="H6" t="n">
         <v>183133.6563152546</v>
       </c>
       <c r="I6" t="n">
-        <v>183133.6563152546</v>
+        <v>183133.6563152545</v>
       </c>
       <c r="J6" t="n">
-        <v>-29908.26128203132</v>
+        <v>-23391.9761274569</v>
       </c>
       <c r="K6" t="n">
-        <v>176893.887912471</v>
+        <v>176893.887912472</v>
       </c>
       <c r="L6" t="n">
-        <v>121711.2989778499</v>
+        <v>117662.4617673775</v>
       </c>
       <c r="M6" t="n">
-        <v>140932.8268556315</v>
+        <v>139881.1318444433</v>
       </c>
       <c r="N6" t="n">
         <v>183133.6563152545</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473192</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>59.28165692085246</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924607</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551349</v>
+        <v>17.58004954287425</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.12687130428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>59.28165692085246</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>335.8134714198675</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.0584322581615</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.120224619649704</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626999</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>64.62179719985352</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>123.6349269934363</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>377.5941292652303</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>235.4885689977913</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>131.5513083793514</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>249.4591561259416</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>279.7430759718029</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,16 +27862,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>320.4717331164399</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>345.3812777453615</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.75118923825899</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,16 +28983,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29217,11 +29217,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431476</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="32">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833171</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.49509683159698</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045311</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.868342022469</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668765</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>68.95436468749502</v>
+        <v>9.597286046856526</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>373.0011178946837</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.2721381892705</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>93.07534195014132</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>64.2767850918834</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>161.7050793552047</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>77.54012143340071</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>274.1926243725203</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>180.451438245074</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>145.1867114541996</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611247</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N28" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851017</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060962</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144207</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>664.2959804238017</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773833</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055105</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272631</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>227.9553781604272</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528578</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634527997</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
